--- a/journalnew.xlsx
+++ b/journalnew.xlsx
@@ -298,7 +298,7 @@
   <dimension ref="C3:N32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K27" activeCellId="0" sqref="K27"/>
+      <selection pane="topLeft" activeCell="P18" activeCellId="0" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/journalnew.xlsx
+++ b/journalnew.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+  <si>
+    <t xml:space="preserve">NEURAL NET TUNING</t>
+  </si>
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -76,22 +79,16 @@
     <t xml:space="preserve">just use 4 epochs</t>
   </si>
   <si>
-    <t xml:space="preserve">lgbm_olivier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightgbm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log_reg_bojan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logistic regression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nb_svm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stacknet?</t>
+    <t xml:space="preserve">LGBM TUNING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">param</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score</t>
   </si>
   <si>
     <t xml:space="preserve">Col-row</t>
@@ -131,7 +128,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -152,6 +149,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -209,12 +213,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -295,58 +303,67 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C3:N32"/>
+  <dimension ref="C2:N18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P18" activeCellId="0" sqref="P18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="K3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="L3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="M3" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>5</v>
@@ -374,15 +391,15 @@
         <v>0.9852</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>5</v>
@@ -410,15 +427,15 @@
         <v>0.9852</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>5</v>
@@ -427,121 +444,102 @@
         <v>0.9869</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>0.9796</v>
+        <v>25</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.9699</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>0.9792</v>
+        <v>25</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.97002</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>0.9772</v>
+        <v>26</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>0.9699</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>0.97002</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E29" s="0" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="0" t="s">
+      <c r="D17" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="E17" s="0" t="n">
+        <v>0.9739</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="0" t="n">
-        <v>0.9739</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="0" t="n">
+      <c r="D18" s="0" t="n">
         <v>0.05</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E18" s="0" t="n">
         <v>0.9764</v>
       </c>
     </row>

--- a/journalnew.xlsx
+++ b/journalnew.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t xml:space="preserve">NEURAL NET TUNING</t>
   </si>
@@ -119,6 +119,42 @@
   </si>
   <si>
     <t xml:space="preserve">learning rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSEMBLE LIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preds file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fasttext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lgbm_olivier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capsulenet_eric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stacknet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logreg_bojan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nb_svm dimitryov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanketeking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">blend of blends</t>
   </si>
 </sst>
 </file>
@@ -303,16 +339,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C2:N18"/>
+  <dimension ref="C2:N34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.64"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
@@ -541,6 +577,86 @@
       </c>
       <c r="E18" s="0" t="n">
         <v>0.9764</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0.98856</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.9852</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0.9764</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0.9779</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/journalnew.xlsx
+++ b/journalnew.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t xml:space="preserve">NEURAL NET TUNING</t>
   </si>
@@ -139,22 +139,34 @@
     <t xml:space="preserve">lgbm_olivier</t>
   </si>
   <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
     <t xml:space="preserve">capsulenet_eric</t>
   </si>
   <si>
-    <t xml:space="preserve">stacknet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logreg_bojan</t>
+    <t xml:space="preserve">DPCNN_eric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNN_LSTM_eric</t>
   </si>
   <si>
     <t xml:space="preserve">nb_svm dimitryov</t>
   </si>
   <si>
-    <t xml:space="preserve">sanketeking </t>
-  </si>
-  <si>
-    <t xml:space="preserve">blend of blends</t>
+    <t xml:space="preserve">log_reg_sanket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log_reg_liblineaR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG-REG-SGD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lsvc-liblinear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lsvc-ftrl</t>
   </si>
 </sst>
 </file>
@@ -339,10 +351,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C2:N34"/>
+  <dimension ref="C2:N36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="28:28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -619,44 +631,104 @@
       <c r="C27" s="0" t="s">
         <v>38</v>
       </c>
+      <c r="D27" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0.981</v>
+      </c>
       <c r="F27" s="0" t="n">
         <v>0.9764</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0.9884</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0.9847</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0.9772</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0.9829</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0.9787</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>0.984</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>0.9779</v>
+        <v>45</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/journalnew.xlsx
+++ b/journalnew.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t xml:space="preserve">NEURAL NET TUNING</t>
   </si>
@@ -167,6 +167,15 @@
   </si>
   <si>
     <t xml:space="preserve">Lsvc-ftrl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coeffs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.10526316 0.15789474 0.05263158 0.         0.15789474 0.10526316</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.15789474 0.05263158 0.         0.         0.21052632]</t>
   </si>
 </sst>
 </file>
@@ -351,10 +360,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C2:N36"/>
+  <dimension ref="C2:N42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="28:28"/>
+      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -731,6 +740,22 @@
         <v>39</v>
       </c>
     </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>0.991219</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
